--- a/Attendance_Batch021-python.xlsx
+++ b/Attendance_Batch021-python.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\workspace_python_2024_GrpI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44754F35-450B-4F47-9BC5-CB975A819C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0BFAE-DE66-422F-928F-8FE2CA1F1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>SN</t>
   </si>
@@ -85,6 +94,129 @@
   </si>
   <si>
     <t>Bijay Poudel</t>
+  </si>
+  <si>
+    <t>021-401</t>
+  </si>
+  <si>
+    <t>021-402</t>
+  </si>
+  <si>
+    <t>021-403</t>
+  </si>
+  <si>
+    <t>021-404</t>
+  </si>
+  <si>
+    <t>021-405</t>
+  </si>
+  <si>
+    <t>021-406</t>
+  </si>
+  <si>
+    <t>021-407</t>
+  </si>
+  <si>
+    <t>021-409</t>
+  </si>
+  <si>
+    <t>021-410</t>
+  </si>
+  <si>
+    <t>021-412</t>
+  </si>
+  <si>
+    <t>021-413</t>
+  </si>
+  <si>
+    <t>021-414</t>
+  </si>
+  <si>
+    <t>021-415</t>
+  </si>
+  <si>
+    <t>021-416</t>
+  </si>
+  <si>
+    <t>021-418</t>
+  </si>
+  <si>
+    <t>021-419</t>
+  </si>
+  <si>
+    <t>021-421</t>
+  </si>
+  <si>
+    <t>020-401</t>
+  </si>
+  <si>
+    <t>Abhishek Katwal</t>
+  </si>
+  <si>
+    <t>020-404</t>
+  </si>
+  <si>
+    <t>Bikash Kr Sah</t>
+  </si>
+  <si>
+    <t>020-413</t>
+  </si>
+  <si>
+    <t>Bimal Regmi</t>
+  </si>
+  <si>
+    <t>Rusha Dahal</t>
+  </si>
+  <si>
+    <t>019-416</t>
+  </si>
+  <si>
+    <t>Sudeep Maharjan</t>
+  </si>
+  <si>
+    <t>019-417</t>
+  </si>
+  <si>
+    <t>Swostika KC</t>
+  </si>
+  <si>
+    <t>019-411</t>
+  </si>
+  <si>
+    <t>Installation and Data types</t>
+  </si>
+  <si>
+    <t>Data types + GUI</t>
+  </si>
+  <si>
+    <t>020-406</t>
+  </si>
+  <si>
+    <t>Narendra Bhatta</t>
+  </si>
+  <si>
+    <t>020-414</t>
+  </si>
+  <si>
+    <t>Bishal Khanal</t>
+  </si>
+  <si>
+    <t>010-416</t>
+  </si>
+  <si>
+    <t>Pitambar Bhatta</t>
+  </si>
+  <si>
+    <t>020-415</t>
+  </si>
+  <si>
+    <t>Nabin Kr Bist</t>
+  </si>
+  <si>
+    <t>Conditional + GUI</t>
+  </si>
+  <si>
+    <t>Conditional GUI + loop + Loop GUI</t>
   </si>
 </sst>
 </file>
@@ -147,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,19 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="3" customWidth="1"/>
     <col min="9" max="13" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="3"/>
@@ -478,13 +613,23 @@
         <v>45459</v>
       </c>
       <c r="E1" s="4">
-        <v>45433</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+        <v>45461</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45463</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45466</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45467</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45468</v>
+      </c>
+      <c r="J1" s="4">
+        <v>45469</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -495,8 +640,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>401</v>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -505,9 +650,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -520,8 +671,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>402</v>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -530,9 +681,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -545,8 +702,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>403</v>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -555,9 +712,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -570,8 +733,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>404</v>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -580,9 +743,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -595,8 +764,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>405</v>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -605,9 +774,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -620,8 +795,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>406</v>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -630,9 +805,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -645,8 +826,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>407</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -655,9 +836,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -670,8 +857,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>409</v>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -680,9 +867,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -695,8 +888,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>410</v>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -705,9 +898,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -720,8 +919,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>412</v>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -730,9 +929,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -745,8 +950,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>413</v>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -755,9 +960,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -770,8 +981,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>414</v>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -780,9 +991,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -795,8 +1012,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>415</v>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -805,9 +1022,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -820,8 +1043,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>416</v>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -830,9 +1053,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -845,8 +1074,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>418</v>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -855,9 +1084,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -866,12 +1101,12 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>419</v>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -880,9 +1115,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -891,12 +1132,12 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>421</v>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -905,9 +1146,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -916,6 +1163,288 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="6">
+        <f>SUM(D2:D29)</f>
+        <v>16</v>
+      </c>
+      <c r="E30" s="6">
+        <f>SUM(E20:E29)</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="3">
+        <f>SUM(F2:F29)</f>
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ref="G30:R30" si="0">SUM(G2:G29)</f>
+        <v>18</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="181.8" x14ac:dyDescent="0.3">
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Attendance_Batch021-python.xlsx
+++ b/Attendance_Batch021-python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\workspace_python_2024_GrpI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0BFAE-DE66-422F-928F-8FE2CA1F1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CF8D5B-F1FB-4169-BBF8-265D47ACE4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>SN</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>Conditional GUI + loop + Loop GUI</t>
+  </si>
+  <si>
+    <t>Loop + GUI</t>
+  </si>
+  <si>
+    <t>Function + GUI</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -589,10 +595,10 @@
     <col min="1" max="1" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="3" customWidth="1"/>
-    <col min="9" max="13" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="6" customWidth="1"/>
+    <col min="9" max="10" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="3"/>
     <col min="15" max="15" width="5.44140625" style="3" customWidth="1"/>
     <col min="16" max="17" width="3.109375" style="3" bestFit="1" customWidth="1"/>
@@ -650,17 +656,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -681,17 +691,21 @@
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -712,17 +726,21 @@
         <v>1</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -743,17 +761,21 @@
         <v>1</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -774,17 +796,21 @@
         <v>1</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -805,17 +831,21 @@
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -836,17 +866,21 @@
         <v>1</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -867,17 +901,21 @@
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -898,17 +936,21 @@
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -929,17 +971,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -960,17 +1006,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -991,17 +1041,21 @@
         <v>1</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1022,17 +1076,21 @@
         <v>1</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1053,17 +1111,21 @@
         <v>1</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1084,24 +1146,28 @@
         <v>1</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1115,24 +1181,28 @@
         <v>1</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1146,24 +1216,28 @@
         <v>1</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1176,17 +1250,23 @@
       <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1199,17 +1279,23 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1222,73 +1308,103 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1301,17 +1417,23 @@
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1324,17 +1446,23 @@
       <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1347,17 +1475,23 @@
       <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="6">
         <f>SUM(D2:D29)</f>
         <v>16</v>
@@ -1366,25 +1500,25 @@
         <f>SUM(E20:E29)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <f>SUM(F2:F29)</f>
         <v>12</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="6">
         <f t="shared" ref="G30:R30" si="0">SUM(G2:G29)</f>
         <v>18</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
+        <v>12</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
@@ -1419,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="181.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="181.8" x14ac:dyDescent="0.3">
       <c r="D31" s="7" t="s">
         <v>49</v>
       </c>
@@ -1435,8 +1569,12 @@
       <c r="H31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="I31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -1445,6 +1583,53 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6">
+        <v>6</v>
+      </c>
+      <c r="K32" s="6">
+        <v>7</v>
+      </c>
+      <c r="L32" s="3">
+        <v>8</v>
+      </c>
+      <c r="M32" s="6">
+        <v>9</v>
+      </c>
+      <c r="N32" s="3">
+        <v>10</v>
+      </c>
+      <c r="O32" s="6">
+        <v>11</v>
+      </c>
+      <c r="P32" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>13</v>
+      </c>
+      <c r="R32" s="6">
+        <v>14</v>
+      </c>
+      <c r="S32" s="3">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Attendance_Batch021-python.xlsx
+++ b/Attendance_Batch021-python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\workspace_python_2024_GrpI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CF8D5B-F1FB-4169-BBF8-265D47ACE4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B100C5A2-1A62-4A7C-A628-F0A9AAEC57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>SN</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Function + GUI</t>
+  </si>
+  <si>
+    <t>Class - OOP</t>
   </si>
 </sst>
 </file>
@@ -586,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -598,7 +601,8 @@
     <col min="4" max="7" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="6" customWidth="1"/>
     <col min="9" max="10" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="3"/>
     <col min="15" max="15" width="5.44140625" style="3" customWidth="1"/>
     <col min="16" max="17" width="3.109375" style="3" bestFit="1" customWidth="1"/>
@@ -636,7 +640,9 @@
       <c r="J1" s="4">
         <v>45469</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="4">
+        <v>45473</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
@@ -671,7 +677,9 @@
       <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -706,7 +714,9 @@
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -741,7 +751,9 @@
       <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -776,7 +788,9 @@
       <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -811,7 +825,9 @@
       <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -846,7 +862,9 @@
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -881,7 +899,9 @@
       <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -916,7 +936,9 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -951,7 +973,9 @@
       <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -986,7 +1010,9 @@
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1021,7 +1047,9 @@
       <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1056,7 +1084,9 @@
       <c r="J13" s="5">
         <v>1</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1091,7 +1121,9 @@
       <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1126,7 +1158,9 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1161,7 +1195,9 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1196,7 +1232,9 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1231,7 +1269,9 @@
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1265,6 +1305,9 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1294,6 +1337,9 @@
       <c r="J20" s="6">
         <v>1</v>
       </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1323,6 +1369,9 @@
       <c r="J21" s="6">
         <v>1</v>
       </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -1343,6 +1392,9 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
@@ -1363,6 +1415,9 @@
       <c r="J23" s="6">
         <v>0</v>
       </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -1383,6 +1438,9 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -1403,6 +1461,9 @@
       <c r="J25" s="6">
         <v>0</v>
       </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1432,6 +1493,9 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1461,6 +1525,9 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -1489,6 +1556,9 @@
       </c>
       <c r="J28" s="6">
         <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -1522,7 +1592,7 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="0"/>
@@ -1575,7 +1645,9 @@
       <c r="J31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>

--- a/Attendance_Batch021-python.xlsx
+++ b/Attendance_Batch021-python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\workspace_python_2024_GrpI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B100C5A2-1A62-4A7C-A628-F0A9AAEC57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC64610-BFA7-4EB5-A07B-6BEFDE0C63C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>SN</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Class - OOP</t>
+  </si>
+  <si>
+    <t>OOP-GUI</t>
   </si>
 </sst>
 </file>
@@ -288,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -589,24 +589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="3.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="6" customWidth="1"/>
-    <col min="9" max="10" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="5.44140625" style="3" customWidth="1"/>
-    <col min="16" max="17" width="3.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="3.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60.6" x14ac:dyDescent="0.3">
@@ -619,34 +618,42 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>45459</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>45461</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>45463</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>45466</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>45467</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>45468</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>45469</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>45473</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="L1" s="3">
+        <v>45474</v>
+      </c>
+      <c r="M1" s="3">
+        <v>45475</v>
+      </c>
+      <c r="N1" s="3">
+        <v>45476</v>
+      </c>
+      <c r="O1" s="3">
+        <v>45477</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -658,32 +665,34 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -695,32 +704,34 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -732,32 +743,34 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -769,32 +782,34 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -806,32 +821,34 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -843,32 +860,34 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -880,32 +899,34 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -917,32 +938,34 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -954,32 +977,34 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -991,32 +1016,34 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1028,32 +1055,34 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1065,32 +1094,34 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1102,32 +1133,34 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1139,32 +1172,34 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1176,32 +1211,34 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1213,32 +1250,34 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1250,455 +1289,489 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>SUM(D2:D29)</f>
         <v>16</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>SUM(E20:E29)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>SUM(F2:F29)</f>
         <v>12</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f t="shared" ref="G30:R30" si="0">SUM(G2:G29)</f>
         <v>18</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
+        <v>7</v>
+      </c>
+      <c r="M30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="181.8" x14ac:dyDescent="0.3">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="L31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
         <v>2</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>3</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>4</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>5</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>6</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>7</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="5">
         <v>8</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>9</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="5">
         <v>10</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>11</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>12</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>13</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="5">
         <v>14</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="2">
         <v>15</v>
       </c>
     </row>

--- a/Attendance_Batch021-python.xlsx
+++ b/Attendance_Batch021-python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\workspace_python_2024_GrpI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC64610-BFA7-4EB5-A07B-6BEFDE0C63C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19103A5-194B-4882-B750-2016C0075D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>SN</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>OOP-GUI</t>
+  </si>
+  <si>
+    <t>GUI-calc, GUI-TODO list</t>
   </si>
 </sst>
 </file>
@@ -589,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -690,7 +693,9 @@
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
@@ -729,7 +734,9 @@
       <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
@@ -768,7 +775,9 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
@@ -807,7 +816,9 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
@@ -846,7 +857,9 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
@@ -885,7 +898,9 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
@@ -924,7 +939,9 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -963,7 +980,9 @@
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
@@ -1002,7 +1021,9 @@
       <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
@@ -1041,7 +1062,9 @@
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
@@ -1080,7 +1103,9 @@
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
@@ -1119,7 +1144,9 @@
       <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
@@ -1158,7 +1185,9 @@
       <c r="L14" s="4">
         <v>0</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
@@ -1197,7 +1226,9 @@
       <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -1236,7 +1267,9 @@
       <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -1275,7 +1308,9 @@
       <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -1314,7 +1349,9 @@
       <c r="L18" s="4">
         <v>0</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
@@ -1352,6 +1389,9 @@
       <c r="L19" s="5">
         <v>0</v>
       </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1387,6 +1427,9 @@
       <c r="L20" s="5">
         <v>1</v>
       </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1422,6 +1465,9 @@
       <c r="L21" s="5">
         <v>1</v>
       </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -1448,6 +1494,9 @@
       <c r="L22" s="5">
         <v>0</v>
       </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -1474,6 +1523,9 @@
       <c r="L23" s="5">
         <v>0</v>
       </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
@@ -1500,6 +1552,9 @@
       <c r="L24" s="5">
         <v>0</v>
       </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1526,6 +1581,9 @@
       <c r="L25" s="5">
         <v>0</v>
       </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1561,6 +1619,9 @@
       <c r="L26" s="5">
         <v>0</v>
       </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1596,6 +1657,9 @@
       <c r="L27" s="5">
         <v>0</v>
       </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1629,6 +1693,9 @@
         <v>0</v>
       </c>
       <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1671,7 +1738,7 @@
       </c>
       <c r="M30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
@@ -1722,7 +1789,9 @@
       <c r="L31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>

--- a/Attendance_Batch021-python.xlsx
+++ b/Attendance_Batch021-python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\workspace_python_2024_GrpI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19103A5-194B-4882-B750-2016C0075D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C378B59-C41B-4B5A-87D3-C183E43F738D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -696,7 +696,9 @@
       <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -737,7 +739,9 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -778,7 +782,9 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -819,7 +825,9 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -860,7 +868,9 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -901,7 +911,9 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -942,7 +954,9 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -983,7 +997,9 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1024,7 +1040,9 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1065,7 +1083,9 @@
       <c r="M11" s="4">
         <v>1</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1106,7 +1126,9 @@
       <c r="M12" s="4">
         <v>1</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1147,7 +1169,9 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1188,7 +1212,9 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1229,7 +1255,9 @@
       <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1270,7 +1298,9 @@
       <c r="M16" s="4">
         <v>1</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1311,7 +1341,9 @@
       <c r="M17" s="4">
         <v>1</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1352,7 +1384,9 @@
       <c r="M18" s="4">
         <v>0</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1392,6 +1426,9 @@
       <c r="M19" s="5">
         <v>0</v>
       </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1430,6 +1467,9 @@
       <c r="M20" s="5">
         <v>1</v>
       </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1468,6 +1508,9 @@
       <c r="M21" s="5">
         <v>1</v>
       </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -1497,6 +1540,9 @@
       <c r="M22" s="5">
         <v>0</v>
       </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -1526,6 +1572,9 @@
       <c r="M23" s="5">
         <v>0</v>
       </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
@@ -1555,6 +1604,9 @@
       <c r="M24" s="5">
         <v>0</v>
       </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1584,6 +1636,9 @@
       <c r="M25" s="5">
         <v>0</v>
       </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1622,6 +1677,9 @@
       <c r="M26" s="5">
         <v>0</v>
       </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1660,6 +1718,9 @@
       <c r="M27" s="5">
         <v>0</v>
       </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1696,6 +1757,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1806,7 @@
       </c>
       <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="0"/>
